--- a/output/StructureDefinition-endpointType.xlsx
+++ b/output/StructureDefinition-endpointType.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-directory-query/StructureDefinition/endpointType</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/endpointType</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T11:05:58-05:00</t>
+    <t>2021-12-17T13:53:37-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -358,7 +358,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/national-directory-query/ValueSet/EndpointTypeVS</t>
+    <t>http://hl7.org/fhir/us/fhir-directory-query/ValueSet/EndpointTypeVS</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -730,7 +730,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="67.296875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="63.0703125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>

--- a/output/StructureDefinition-endpointType.xlsx
+++ b/output/StructureDefinition-endpointType.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-17T13:53:37-05:00</t>
+    <t>2022-01-06T09:30:55-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-endpointType.xlsx
+++ b/output/StructureDefinition-endpointType.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-06T09:30:55-05:00</t>
+    <t>2022-01-07T08:48:00-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-endpointType.xlsx
+++ b/output/StructureDefinition-endpointType.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-07T08:48:00-05:00</t>
+    <t>2022-01-10T11:07:52-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-endpointType.xlsx
+++ b/output/StructureDefinition-endpointType.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T11:07:52-05:00</t>
+    <t>2022-01-10T14:04:03-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-endpointType.xlsx
+++ b/output/StructureDefinition-endpointType.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T14:04:03-05:00</t>
+    <t>2022-01-11T11:42:07-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-endpointType.xlsx
+++ b/output/StructureDefinition-endpointType.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-11T11:42:07-05:00</t>
+    <t>2022-01-11T11:53:21-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-endpointType.xlsx
+++ b/output/StructureDefinition-endpointType.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-11T11:53:21-05:00</t>
+    <t>2022-02-03T09:58:18-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-endpointType.xlsx
+++ b/output/StructureDefinition-endpointType.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-03T09:58:18-05:00</t>
+    <t>2022-02-03T10:48:00-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-endpointType.xlsx
+++ b/output/StructureDefinition-endpointType.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-03T10:48:00-05:00</t>
+    <t>2022-03-09T14:32:46-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-endpointType.xlsx
+++ b/output/StructureDefinition-endpointType.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-09T14:32:46-05:00</t>
+    <t>2022-03-16T09:57:32-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-endpointType.xlsx
+++ b/output/StructureDefinition-endpointType.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-16T09:57:32-04:00</t>
+    <t>2022-03-25T16:16:05-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-endpointType.xlsx
+++ b/output/StructureDefinition-endpointType.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-25T16:16:05-04:00</t>
+    <t>2022-03-25T16:25:37-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-endpointType.xlsx
+++ b/output/StructureDefinition-endpointType.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-25T16:25:37-04:00</t>
+    <t>2022-04-01T12:43:46-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-endpointType.xlsx
+++ b/output/StructureDefinition-endpointType.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-01T12:43:46-04:00</t>
+    <t>2022-04-05T10:32:14-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-endpointType.xlsx
+++ b/output/StructureDefinition-endpointType.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-05T10:32:14-04:00</t>
+    <t>2022-04-05T18:50:47-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-endpointType.xlsx
+++ b/output/StructureDefinition-endpointType.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-05T18:50:47-04:00</t>
+    <t>2022-04-08T11:43:46-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-endpointType.xlsx
+++ b/output/StructureDefinition-endpointType.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-08T11:43:46-04:00</t>
+    <t>2022-04-20T16:26:55-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-endpointType.xlsx
+++ b/output/StructureDefinition-endpointType.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-20T16:26:55-04:00</t>
+    <t>2022-05-25T13:59:19-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-endpointType.xlsx
+++ b/output/StructureDefinition-endpointType.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-25T13:59:19-04:00</t>
+    <t>2022-06-03T15:19:55-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-endpointType.xlsx
+++ b/output/StructureDefinition-endpointType.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-03T15:19:55-04:00</t>
+    <t>2022-07-08T11:33:11-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-endpointType.xlsx
+++ b/output/StructureDefinition-endpointType.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-08T11:33:11-04:00</t>
+    <t>2022-07-12T12:55:11-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-endpointType.xlsx
+++ b/output/StructureDefinition-endpointType.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-12T12:55:11-04:00</t>
+    <t>2022-07-13T15:48:20-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -706,17 +706,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="28.2734375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="28.27734375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="7.68359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.90234375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="36.40625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="36.41015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -725,23 +725,23 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.08984375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="63.0703125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="63.07421875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.3046875" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="17.7265625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.87890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="22.67578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/output/StructureDefinition-endpointType.xlsx
+++ b/output/StructureDefinition-endpointType.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-13T15:48:20-04:00</t>
+    <t>2022-07-14T18:44:03-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-endpointType.xlsx
+++ b/output/StructureDefinition-endpointType.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="114">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T18:44:03-04:00</t>
+    <t>2022-07-21T17:51:33-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -305,13 +305,10 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>type</t>
+    <t>endpointType</t>
   </si>
   <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>IG Type</t>
   </si>
   <si>
     <t>Extension.extension.id</t>
@@ -707,7 +704,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="28.27734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.4765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="7.68359375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.90234375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -1184,7 +1181,7 @@
         <v>88</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="L5" t="s" s="2">
         <v>89</v>
@@ -1258,7 +1255,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1358,7 +1355,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1458,7 +1455,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1481,16 +1478,16 @@
         <v>75</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -1540,7 +1537,7 @@
         <v>75</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>81</v>
@@ -1555,12 +1552,12 @@
         <v>75</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1568,7 +1565,7 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>81</v>
@@ -1583,13 +1580,13 @@
         <v>75</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1616,29 +1613,29 @@
         <v>75</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X9" s="2"/>
       <c r="Y9" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE9" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="Z9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>76</v>
@@ -1650,15 +1647,15 @@
         <v>75</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1681,16 +1678,16 @@
         <v>75</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -1740,7 +1737,7 @@
         <v>75</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>81</v>
@@ -1755,12 +1752,12 @@
         <v>75</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1783,13 +1780,13 @@
         <v>75</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1840,7 +1837,7 @@
         <v>75</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>76</v>
@@ -1852,10 +1849,10 @@
         <v>75</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/output/StructureDefinition-endpointType.xlsx
+++ b/output/StructureDefinition-endpointType.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.1</t>
+    <t>1.0.0-ballot1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-21T17:51:33-04:00</t>
+    <t>2022-07-24T13:15:49-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-endpointType.xlsx
+++ b/output/StructureDefinition-endpointType.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-24T13:15:49-04:00</t>
+    <t>2022-07-25T09:59:20-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
